--- a/Mobile data.xlsx
+++ b/Mobile data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koegs\Desktop\DU Bootcamp\Homework\project1-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE63864-ECFF-469F-851A-E494828560AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8B972-10A5-4A9F-A59B-1E67A0E41D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="613" activeTab="3" xr2:uid="{71CD5D0D-8255-4AE4-8B30-47FBD678940F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="613" xr2:uid="{71CD5D0D-8255-4AE4-8B30-47FBD678940F}"/>
   </bookViews>
   <sheets>
     <sheet name="MAUs by app" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MAUs by app'!$B$1:$C$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4621,6 +4620,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1070485564304462"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10636,15 +10643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>815975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10861,231 +10868,7 @@
       <sheetName val="SnapChat"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>WeChat</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>21 January 2011; 9 years ago (as Weixin)</v>
-          </cell>
-          <cell r="C2">
-            <v>40564</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Tencent Holdings Limited</v>
-          </cell>
-          <cell r="F2">
-            <v>1.48</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>LINE</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>March 2012</v>
-          </cell>
-          <cell r="C3">
-            <v>40969</v>
-          </cell>
-          <cell r="F3">
-            <v>3.15</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Telegram</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>14 August 2013; 6 years ago</v>
-          </cell>
-          <cell r="C4">
-            <v>41500</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Telegram FZ LLC</v>
-          </cell>
-          <cell r="F4">
-            <v>3.47</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Skype</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>29 August 2003; 16 years ago</v>
-          </cell>
-          <cell r="C5">
-            <v>37862</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Skype Technologies</v>
-          </cell>
-          <cell r="F5">
-            <v>5.53</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Kik</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>October 19, 2010; 9 years ago</v>
-          </cell>
-          <cell r="C6">
-            <v>40470</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Kik Interactive Inc.</v>
-          </cell>
-          <cell r="F6">
-            <v>7.72</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>groupme</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>May 2010; 9 years ago</v>
-          </cell>
-          <cell r="C7">
-            <v>40299</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Skype Technologies S.A.</v>
-          </cell>
-          <cell r="F7">
-            <v>10.75</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Google Hangouts</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>May 15, 2013; 6 years ago</v>
-          </cell>
-          <cell r="C8">
-            <v>41409</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Google LLC</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>dead - I think</v>
-          </cell>
-          <cell r="F8">
-            <v>14.19</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Google Messages</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>2018; 2 years ago</v>
-          </cell>
-          <cell r="C9">
-            <v>43101</v>
-          </cell>
-          <cell r="F9">
-            <v>17.46</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>WhatsApp</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>January 2009; 11 years ago</v>
-          </cell>
-          <cell r="C10">
-            <v>39814</v>
-          </cell>
-          <cell r="F10">
-            <v>25.58</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>SnapChat</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>September 2011; 8 years ago</v>
-          </cell>
-          <cell r="C11">
-            <v>40787</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Snap Inc.</v>
-          </cell>
-          <cell r="F11">
-            <v>45.98</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Twitter</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>July 15, 2006; 13 years ago</v>
-          </cell>
-          <cell r="C12">
-            <v>38913</v>
-          </cell>
-          <cell r="F12">
-            <v>69.64</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>FB Messenger</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>August 9, 2011; 8 years ago</v>
-          </cell>
-          <cell r="C13">
-            <v>40764</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Facebook, Inc.</v>
-          </cell>
-          <cell r="F13">
-            <v>106.4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Youtube</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>February 14, 2005</v>
-          </cell>
-          <cell r="C14">
-            <v>38397</v>
-          </cell>
-          <cell r="F14">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Instagram</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>October 6, 2010; 9 years ago</v>
-          </cell>
-          <cell r="C15">
-            <v>40457</v>
-          </cell>
-          <cell r="F15">
-            <v>400</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="B3" t="str">
@@ -11540,7 +11323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26537633-F0F7-451C-9629-5F1D5A29C03B}">
   <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -15038,8 +14821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D742078D-89AF-4A3D-9FA2-7CA7ED47C06B}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15716,7 +15499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1E4252-66B5-4642-BBAB-83AC7B5EF819}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/Mobile data.xlsx
+++ b/Mobile data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koegs\Desktop\DU Bootcamp\Homework\project1-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8B972-10A5-4A9F-A59B-1E67A0E41D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF212A-CCAB-48DE-94FC-9D043829DA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="613" xr2:uid="{71CD5D0D-8255-4AE4-8B30-47FBD678940F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="613" activeTab="2" xr2:uid="{71CD5D0D-8255-4AE4-8B30-47FBD678940F}"/>
   </bookViews>
   <sheets>
     <sheet name="MAUs by app" sheetId="6" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="224">
   <si>
     <r>
       <t>130,000,000,000+</t>
@@ -1489,7 +1489,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000000-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1645,7 +1645,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000001-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1795,7 +1795,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000002-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1939,7 +1939,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000003-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2086,7 +2086,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000004-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2212,7 +2212,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000005-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2363,7 +2363,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000006-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2511,7 +2511,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000007-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2665,7 +2665,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000008-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2822,7 +2822,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000009-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2961,7 +2961,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{0000000A-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3118,7 +3118,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{0000000B-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3258,7 +3258,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{0000000C-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3398,7 +3398,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{0000000D-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3553,7 +3553,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{0000000E-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3711,7 +3711,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{0000000F-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3869,7 +3869,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000010-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4030,7 +4030,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000011-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4175,7 +4175,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000012-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4347,7 +4347,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-78DA-456C-AF8F-41C4A2A331D4}"/>
+              <c16:uniqueId val="{00000013-9E66-4BB7-A504-CDA1DCA8F7C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10601,27 +10601,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>593726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181D42C6-35F8-4404-88C1-D88A8410BCED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3782189-57F8-4A11-B140-B6A8FA3A2E56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11323,8 +11325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26537633-F0F7-451C-9629-5F1D5A29C03B}">
   <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="O10" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12147,6 +12149,81 @@
       </c>
       <c r="C23">
         <v>80000000</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G3:G22)</f>
+        <v>3000000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:X23" si="0">SUM(H3:H22)</f>
+        <v>4470000</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>15525405</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>55892892</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>133727481</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>323723343</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>649259280</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>939537344</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1552301172</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>2138454004</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>2969870946</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>4238214665</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>5323579663</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>6163816830</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>7491935200</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>8745885573</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>8762230000</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>3119860000</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -14821,7 +14898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D742078D-89AF-4A3D-9FA2-7CA7ED47C06B}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>

--- a/Mobile data.xlsx
+++ b/Mobile data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koegs\Desktop\DU Bootcamp\Homework\project1-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF212A-CCAB-48DE-94FC-9D043829DA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0201235C-7D36-4258-AAC7-1A13796C779A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="613" activeTab="2" xr2:uid="{71CD5D0D-8255-4AE4-8B30-47FBD678940F}"/>
   </bookViews>
@@ -11325,8 +11325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26537633-F0F7-451C-9629-5F1D5A29C03B}">
   <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView topLeftCell="O10" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15576,7 +15576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1E4252-66B5-4642-BBAB-83AC7B5EF819}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
